--- a/subRE/medidasDistanciEcuRE.xlsx
+++ b/subRE/medidasDistanciEcuRE.xlsx
@@ -475,13 +475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F166" workbookViewId="0">
-      <selection activeCell="Q176" sqref="Q176"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
